--- a/Simulations.xlsx
+++ b/Simulations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspaces\Git\az-204\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29582D9D-460D-4E3A-B77A-9854EF826A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7E21F5-D07E-470A-BF40-EF830C7F973E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="41">
   <si>
     <t>Set</t>
   </si>
@@ -118,6 +118,36 @@
   </si>
   <si>
     <t>Percentuale OK</t>
+  </si>
+  <si>
+    <t>a,b,c,e</t>
+  </si>
+  <si>
+    <t>I do not agrre with the answer from the book</t>
+  </si>
+  <si>
+    <t>Il libro chiede ti settare tre proprietà. Lui le setta in ordine diverso, a livello di codice non cambia, sono solo dei setter</t>
+  </si>
+  <si>
+    <t>si usano le metrics</t>
+  </si>
+  <si>
+    <t>questa è la pratica…</t>
+  </si>
+  <si>
+    <t>ha ragione, pirla io</t>
+  </si>
+  <si>
+    <t>è così</t>
+  </si>
+  <si>
+    <t>ok, ho imparato qualcosa</t>
+  </si>
+  <si>
+    <t>è così.</t>
+  </si>
+  <si>
+    <t>Totale Risposte OK</t>
   </si>
 </sst>
 </file>
@@ -141,7 +171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +202,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -185,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -193,6 +229,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -473,11 +512,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,9 +1595,1044 @@
       <c r="D58" t="s">
         <v>30</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="7">
         <f>(E57/B56)*100</f>
         <v>50.909090909090907</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62">
+        <f>IF(C62=D62,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ref="E63:E116" si="1">IF(C63=D63,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>31</v>
+      </c>
+      <c r="D70" t="s">
+        <v>31</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74">
+        <v>13</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75">
+        <v>14</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76">
+        <v>15</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <v>16</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78">
+        <v>17</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="B79">
+        <v>18</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2</v>
+      </c>
+      <c r="B80">
+        <v>19</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81">
+        <v>20</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82">
+        <v>21</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83">
+        <v>22</v>
+      </c>
+      <c r="C83" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <v>23</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2</v>
+      </c>
+      <c r="B85">
+        <v>24</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86">
+        <v>25</v>
+      </c>
+      <c r="C86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87">
+        <v>26</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2</v>
+      </c>
+      <c r="B88">
+        <v>27</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F88" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2</v>
+      </c>
+      <c r="B89">
+        <v>28</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F89" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90">
+        <v>29</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91">
+        <v>30</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2</v>
+      </c>
+      <c r="B92">
+        <v>31</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2</v>
+      </c>
+      <c r="B93">
+        <v>32</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2</v>
+      </c>
+      <c r="B94">
+        <v>33</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95">
+        <v>34</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2</v>
+      </c>
+      <c r="B96">
+        <v>35</v>
+      </c>
+      <c r="C96" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F96" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2</v>
+      </c>
+      <c r="B97">
+        <v>36</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2</v>
+      </c>
+      <c r="B98">
+        <v>37</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="B99">
+        <v>38</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100">
+        <v>39</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2</v>
+      </c>
+      <c r="B101">
+        <v>40</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F101" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102">
+        <v>41</v>
+      </c>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2</v>
+      </c>
+      <c r="B103">
+        <v>42</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2</v>
+      </c>
+      <c r="B104">
+        <v>43</v>
+      </c>
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2</v>
+      </c>
+      <c r="B105">
+        <v>44</v>
+      </c>
+      <c r="C105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2</v>
+      </c>
+      <c r="B106">
+        <v>45</v>
+      </c>
+      <c r="C106" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2</v>
+      </c>
+      <c r="B107">
+        <v>46</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F107" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2</v>
+      </c>
+      <c r="B108">
+        <v>47</v>
+      </c>
+      <c r="C108" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2</v>
+      </c>
+      <c r="B109">
+        <v>48</v>
+      </c>
+      <c r="C109" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2</v>
+      </c>
+      <c r="B110">
+        <v>49</v>
+      </c>
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2</v>
+      </c>
+      <c r="B111">
+        <v>50</v>
+      </c>
+      <c r="C111" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2</v>
+      </c>
+      <c r="B112">
+        <v>51</v>
+      </c>
+      <c r="C112" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2</v>
+      </c>
+      <c r="B113">
+        <v>52</v>
+      </c>
+      <c r="C113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F113" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2</v>
+      </c>
+      <c r="B114">
+        <v>53</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2</v>
+      </c>
+      <c r="B115">
+        <v>54</v>
+      </c>
+      <c r="C115" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2</v>
+      </c>
+      <c r="B116">
+        <v>55</v>
+      </c>
+      <c r="C116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F116" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D117" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E117">
+        <f>SUM(E62:E116)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D118" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E118" s="6">
+        <f>(E117/B116)*100</f>
+        <v>70.909090909090907</v>
       </c>
     </row>
   </sheetData>

--- a/Simulations.xlsx
+++ b/Simulations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspaces\Git\az-204\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7E21F5-D07E-470A-BF40-EF830C7F973E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFF592E-0B8A-49CD-9714-9926ECCEF082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="51">
   <si>
     <t>Set</t>
   </si>
@@ -148,6 +148,36 @@
   </si>
   <si>
     <t>Totale Risposte OK</t>
+  </si>
+  <si>
+    <t>a,e,f</t>
+  </si>
+  <si>
+    <t>b,d,f</t>
+  </si>
+  <si>
+    <t>e -&gt; è sbagliato perchè se faccio più namespaces diventa complicato da gestire. A -&gt; non va bene perchè se ho più topic l'ordine deve essere inviato a più topic</t>
+  </si>
+  <si>
+    <t>pirla io</t>
+  </si>
+  <si>
+    <t>si può fare dalla ui</t>
+  </si>
+  <si>
+    <t>a,c,e</t>
+  </si>
+  <si>
+    <t>requirements</t>
+  </si>
+  <si>
+    <t>the book is wrong</t>
+  </si>
+  <si>
+    <t>not cost effective</t>
+  </si>
+  <si>
+    <t>il subject è il path che indica anche blob container</t>
   </si>
 </sst>
 </file>
@@ -512,11 +542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:F177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G121" sqref="G121"/>
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E177" sqref="E177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2635,6 +2665,1076 @@
         <v>70.909090909090907</v>
       </c>
     </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>3</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>41</v>
+      </c>
+      <c r="D121" t="s">
+        <v>42</v>
+      </c>
+      <c r="E121">
+        <f>IF(C121=D121,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F121" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>3</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122">
+        <f t="shared" ref="E122:E175" si="2">IF(C122=D122,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>3</v>
+      </c>
+      <c r="B123">
+        <v>3</v>
+      </c>
+      <c r="C123" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F123" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>3</v>
+      </c>
+      <c r="B124">
+        <v>4</v>
+      </c>
+      <c r="C124" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F124" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>3</v>
+      </c>
+      <c r="B125">
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F125" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>3</v>
+      </c>
+      <c r="B126">
+        <v>6</v>
+      </c>
+      <c r="C126" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F126" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>3</v>
+      </c>
+      <c r="B127">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>3</v>
+      </c>
+      <c r="B128">
+        <v>8</v>
+      </c>
+      <c r="C128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" t="s">
+        <v>46</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F128" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>3</v>
+      </c>
+      <c r="B129">
+        <v>9</v>
+      </c>
+      <c r="C129" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F129" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>3</v>
+      </c>
+      <c r="B130">
+        <v>10</v>
+      </c>
+      <c r="C130" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F130" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>3</v>
+      </c>
+      <c r="B131">
+        <v>11</v>
+      </c>
+      <c r="C131" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131" t="s">
+        <v>5</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>3</v>
+      </c>
+      <c r="B132">
+        <v>12</v>
+      </c>
+      <c r="C132" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>3</v>
+      </c>
+      <c r="B133">
+        <v>13</v>
+      </c>
+      <c r="C133" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" t="s">
+        <v>6</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>3</v>
+      </c>
+      <c r="B134">
+        <v>14</v>
+      </c>
+      <c r="C134" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" t="s">
+        <v>6</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>3</v>
+      </c>
+      <c r="B135">
+        <v>15</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" t="s">
+        <v>6</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>3</v>
+      </c>
+      <c r="B136">
+        <v>16</v>
+      </c>
+      <c r="C136" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" t="s">
+        <v>6</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>3</v>
+      </c>
+      <c r="B137">
+        <v>17</v>
+      </c>
+      <c r="C137" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>3</v>
+      </c>
+      <c r="B138">
+        <v>18</v>
+      </c>
+      <c r="C138" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>3</v>
+      </c>
+      <c r="B139">
+        <v>19</v>
+      </c>
+      <c r="C139" t="s">
+        <v>7</v>
+      </c>
+      <c r="D139" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>3</v>
+      </c>
+      <c r="B140">
+        <v>20</v>
+      </c>
+      <c r="C140" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>3</v>
+      </c>
+      <c r="B141">
+        <v>21</v>
+      </c>
+      <c r="C141" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>3</v>
+      </c>
+      <c r="B142">
+        <v>22</v>
+      </c>
+      <c r="C142" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>3</v>
+      </c>
+      <c r="B143">
+        <v>23</v>
+      </c>
+      <c r="C143" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>3</v>
+      </c>
+      <c r="B144">
+        <v>24</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" t="s">
+        <v>5</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>3</v>
+      </c>
+      <c r="B145">
+        <v>25</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" t="s">
+        <v>5</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F145" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>3</v>
+      </c>
+      <c r="B146">
+        <v>26</v>
+      </c>
+      <c r="C146" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" t="s">
+        <v>8</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>3</v>
+      </c>
+      <c r="B147">
+        <v>27</v>
+      </c>
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" t="s">
+        <v>7</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F147" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>3</v>
+      </c>
+      <c r="B148">
+        <v>28</v>
+      </c>
+      <c r="C148" t="s">
+        <v>7</v>
+      </c>
+      <c r="D148" t="s">
+        <v>7</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>3</v>
+      </c>
+      <c r="B149">
+        <v>29</v>
+      </c>
+      <c r="C149" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" t="s">
+        <v>6</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>3</v>
+      </c>
+      <c r="B150">
+        <v>30</v>
+      </c>
+      <c r="C150" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150" t="s">
+        <v>8</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>3</v>
+      </c>
+      <c r="B151">
+        <v>31</v>
+      </c>
+      <c r="C151" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" t="s">
+        <v>5</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F151" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>3</v>
+      </c>
+      <c r="B152">
+        <v>32</v>
+      </c>
+      <c r="C152" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>3</v>
+      </c>
+      <c r="B153">
+        <v>33</v>
+      </c>
+      <c r="C153" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" t="s">
+        <v>6</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>3</v>
+      </c>
+      <c r="B154">
+        <v>34</v>
+      </c>
+      <c r="C154" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>3</v>
+      </c>
+      <c r="B155">
+        <v>35</v>
+      </c>
+      <c r="C155" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" t="s">
+        <v>8</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>3</v>
+      </c>
+      <c r="B156">
+        <v>36</v>
+      </c>
+      <c r="C156" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F156" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>3</v>
+      </c>
+      <c r="B157">
+        <v>37</v>
+      </c>
+      <c r="C157" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" t="s">
+        <v>8</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F157" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>3</v>
+      </c>
+      <c r="B158">
+        <v>38</v>
+      </c>
+      <c r="C158" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F158" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>3</v>
+      </c>
+      <c r="B159">
+        <v>39</v>
+      </c>
+      <c r="C159" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159" t="s">
+        <v>8</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F159" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>3</v>
+      </c>
+      <c r="B160">
+        <v>40</v>
+      </c>
+      <c r="C160" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>3</v>
+      </c>
+      <c r="B161">
+        <v>41</v>
+      </c>
+      <c r="C161" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" t="s">
+        <v>5</v>
+      </c>
+      <c r="E161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F161" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>3</v>
+      </c>
+      <c r="B162">
+        <v>42</v>
+      </c>
+      <c r="C162" t="s">
+        <v>7</v>
+      </c>
+      <c r="D162" t="s">
+        <v>6</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F162" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>3</v>
+      </c>
+      <c r="B163">
+        <v>43</v>
+      </c>
+      <c r="C163" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" t="s">
+        <v>8</v>
+      </c>
+      <c r="E163">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>3</v>
+      </c>
+      <c r="B164">
+        <v>44</v>
+      </c>
+      <c r="C164" t="s">
+        <v>5</v>
+      </c>
+      <c r="D164" t="s">
+        <v>8</v>
+      </c>
+      <c r="E164">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F164" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>3</v>
+      </c>
+      <c r="B165">
+        <v>45</v>
+      </c>
+      <c r="C165" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F165" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>3</v>
+      </c>
+      <c r="B166">
+        <v>46</v>
+      </c>
+      <c r="C166" t="s">
+        <v>5</v>
+      </c>
+      <c r="D166" t="s">
+        <v>8</v>
+      </c>
+      <c r="E166">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F166" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>3</v>
+      </c>
+      <c r="B167">
+        <v>47</v>
+      </c>
+      <c r="C167" t="s">
+        <v>5</v>
+      </c>
+      <c r="D167" t="s">
+        <v>5</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>3</v>
+      </c>
+      <c r="B168">
+        <v>48</v>
+      </c>
+      <c r="C168" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168" t="s">
+        <v>6</v>
+      </c>
+      <c r="E168">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F168" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>3</v>
+      </c>
+      <c r="B169">
+        <v>49</v>
+      </c>
+      <c r="C169" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" t="s">
+        <v>8</v>
+      </c>
+      <c r="E169">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>3</v>
+      </c>
+      <c r="B170">
+        <v>50</v>
+      </c>
+      <c r="C170" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>3</v>
+      </c>
+      <c r="B171">
+        <v>51</v>
+      </c>
+      <c r="C171" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" t="s">
+        <v>8</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>3</v>
+      </c>
+      <c r="B172">
+        <v>52</v>
+      </c>
+      <c r="C172" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" t="s">
+        <v>8</v>
+      </c>
+      <c r="E172">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>3</v>
+      </c>
+      <c r="B173">
+        <v>53</v>
+      </c>
+      <c r="C173" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" t="s">
+        <v>7</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F173" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>3</v>
+      </c>
+      <c r="B174">
+        <v>54</v>
+      </c>
+      <c r="C174" t="s">
+        <v>7</v>
+      </c>
+      <c r="D174" t="s">
+        <v>7</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>3</v>
+      </c>
+      <c r="B175">
+        <v>55</v>
+      </c>
+      <c r="C175" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175" t="s">
+        <v>8</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E176">
+        <f>SUM(E121:E175)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E177">
+        <f>(E176/B175)*100</f>
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Simulations.xlsx
+++ b/Simulations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspaces\Git\az-204\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFF592E-0B8A-49CD-9714-9926ECCEF082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B77C0B-ADFA-456B-B510-9EA85768DF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="67">
   <si>
     <t>Set</t>
   </si>
@@ -178,6 +178,54 @@
   </si>
   <si>
     <t>il subject è il path che indica anche blob container</t>
+  </si>
+  <si>
+    <t>b,c</t>
+  </si>
+  <si>
+    <t>b,d</t>
+  </si>
+  <si>
+    <t>è così. La risorsa può pubblicare eventi nell'event grid, e io ascolto</t>
+  </si>
+  <si>
+    <t>il function logging si definisce nel host.json</t>
+  </si>
+  <si>
+    <t>override perchè devo far scadere ne + ne - dopo un'ora</t>
+  </si>
+  <si>
+    <t>cache tutto perchè devo assicurarmi di avere tutto cachato</t>
+  </si>
+  <si>
+    <t>mal capito la domanda.si, devo creare la regola, ma prima devo prendere quella già esistente</t>
+  </si>
+  <si>
+    <t>è così, per vedere il container log a startup devo usare l'"attach"</t>
+  </si>
+  <si>
+    <t>per via della grande quantità di richieste è meglio usare event hub</t>
+  </si>
+  <si>
+    <t>I metadata si prendono con la fetch</t>
+  </si>
+  <si>
+    <t>quando creo un bus topic o bus queue, posso impostare numery enormi per l'expiry days</t>
+  </si>
+  <si>
+    <t>il batch size lo posso impostare via config</t>
+  </si>
+  <si>
+    <t>c,d</t>
+  </si>
+  <si>
+    <t>è meglio per avere un time spamp più accurato</t>
+  </si>
+  <si>
+    <t>a -&gt; prima scarico e poi upload. B -&gt; copia diretta, meglio questa scelta</t>
+  </si>
+  <si>
+    <t>le stored procedure hanno come scope la partition. Quindi l'unica è di fare un loop sulle partitions</t>
   </si>
 </sst>
 </file>
@@ -542,11 +590,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F177"/>
+  <dimension ref="A1:F246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E177" sqref="E177"/>
+      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E246" sqref="E246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3729,10 +3777,1270 @@
         <v>33</v>
       </c>
     </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E177">
         <f>(E176/B175)*100</f>
         <v>60</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>4</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" t="s">
+        <v>8</v>
+      </c>
+      <c r="E180">
+        <f>IF(C180=D180,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F180" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>4</v>
+      </c>
+      <c r="B181">
+        <v>2</v>
+      </c>
+      <c r="C181" t="s">
+        <v>5</v>
+      </c>
+      <c r="D181" t="s">
+        <v>6</v>
+      </c>
+      <c r="E181">
+        <f t="shared" ref="E181:E244" si="3">IF(C181=D181,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F181" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>4</v>
+      </c>
+      <c r="B182">
+        <v>3</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182" t="s">
+        <v>7</v>
+      </c>
+      <c r="E182">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>4</v>
+      </c>
+      <c r="B183">
+        <v>4</v>
+      </c>
+      <c r="C183" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183" t="s">
+        <v>8</v>
+      </c>
+      <c r="E183">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>4</v>
+      </c>
+      <c r="B184">
+        <v>5</v>
+      </c>
+      <c r="C184" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" t="s">
+        <v>8</v>
+      </c>
+      <c r="E184">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F184" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>4</v>
+      </c>
+      <c r="B185">
+        <v>6</v>
+      </c>
+      <c r="C185" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185" t="s">
+        <v>6</v>
+      </c>
+      <c r="E185">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F185" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>4</v>
+      </c>
+      <c r="B186">
+        <v>7</v>
+      </c>
+      <c r="C186" t="s">
+        <v>5</v>
+      </c>
+      <c r="D186" t="s">
+        <v>5</v>
+      </c>
+      <c r="E186">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>4</v>
+      </c>
+      <c r="B187">
+        <v>8</v>
+      </c>
+      <c r="C187" t="s">
+        <v>10</v>
+      </c>
+      <c r="D187" t="s">
+        <v>10</v>
+      </c>
+      <c r="E187">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>4</v>
+      </c>
+      <c r="B188">
+        <v>9</v>
+      </c>
+      <c r="C188" t="s">
+        <v>8</v>
+      </c>
+      <c r="D188" t="s">
+        <v>8</v>
+      </c>
+      <c r="E188">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>4</v>
+      </c>
+      <c r="B189">
+        <v>10</v>
+      </c>
+      <c r="C189" t="s">
+        <v>7</v>
+      </c>
+      <c r="D189" t="s">
+        <v>6</v>
+      </c>
+      <c r="E189">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F189" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>4</v>
+      </c>
+      <c r="B190">
+        <v>11</v>
+      </c>
+      <c r="C190" t="s">
+        <v>8</v>
+      </c>
+      <c r="D190" t="s">
+        <v>8</v>
+      </c>
+      <c r="E190">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>4</v>
+      </c>
+      <c r="B191">
+        <v>12</v>
+      </c>
+      <c r="C191" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191" t="s">
+        <v>7</v>
+      </c>
+      <c r="E191">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F191" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>4</v>
+      </c>
+      <c r="B192">
+        <v>13</v>
+      </c>
+      <c r="C192" t="s">
+        <v>8</v>
+      </c>
+      <c r="D192" t="s">
+        <v>8</v>
+      </c>
+      <c r="E192">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>4</v>
+      </c>
+      <c r="B193">
+        <v>14</v>
+      </c>
+      <c r="C193" t="s">
+        <v>7</v>
+      </c>
+      <c r="D193" t="s">
+        <v>7</v>
+      </c>
+      <c r="E193">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>4</v>
+      </c>
+      <c r="B194">
+        <v>15</v>
+      </c>
+      <c r="C194" t="s">
+        <v>7</v>
+      </c>
+      <c r="D194" t="s">
+        <v>7</v>
+      </c>
+      <c r="E194">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>4</v>
+      </c>
+      <c r="B195">
+        <v>16</v>
+      </c>
+      <c r="C195" t="s">
+        <v>5</v>
+      </c>
+      <c r="D195" t="s">
+        <v>5</v>
+      </c>
+      <c r="E195">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>4</v>
+      </c>
+      <c r="B196">
+        <v>17</v>
+      </c>
+      <c r="C196" t="s">
+        <v>7</v>
+      </c>
+      <c r="D196" t="s">
+        <v>8</v>
+      </c>
+      <c r="E196">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F196" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>4</v>
+      </c>
+      <c r="B197">
+        <v>18</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="s">
+        <v>8</v>
+      </c>
+      <c r="E197">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F197" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>4</v>
+      </c>
+      <c r="B198">
+        <v>19</v>
+      </c>
+      <c r="C198" t="s">
+        <v>8</v>
+      </c>
+      <c r="D198" t="s">
+        <v>6</v>
+      </c>
+      <c r="E198">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F198" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>4</v>
+      </c>
+      <c r="B199">
+        <v>20</v>
+      </c>
+      <c r="C199" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199" t="s">
+        <v>8</v>
+      </c>
+      <c r="E199">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F199" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>4</v>
+      </c>
+      <c r="B200">
+        <v>21</v>
+      </c>
+      <c r="C200" t="s">
+        <v>51</v>
+      </c>
+      <c r="D200" t="s">
+        <v>51</v>
+      </c>
+      <c r="E200">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>4</v>
+      </c>
+      <c r="B201">
+        <v>22</v>
+      </c>
+      <c r="C201" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201" t="s">
+        <v>8</v>
+      </c>
+      <c r="E201">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>4</v>
+      </c>
+      <c r="B202">
+        <v>23</v>
+      </c>
+      <c r="C202" t="s">
+        <v>6</v>
+      </c>
+      <c r="D202" t="s">
+        <v>6</v>
+      </c>
+      <c r="E202">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>4</v>
+      </c>
+      <c r="B203">
+        <v>24</v>
+      </c>
+      <c r="C203" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" t="s">
+        <v>8</v>
+      </c>
+      <c r="E203">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>4</v>
+      </c>
+      <c r="B204">
+        <v>25</v>
+      </c>
+      <c r="C204" t="s">
+        <v>8</v>
+      </c>
+      <c r="D204" t="s">
+        <v>7</v>
+      </c>
+      <c r="E204">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F204" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>4</v>
+      </c>
+      <c r="B205">
+        <v>26</v>
+      </c>
+      <c r="C205" t="s">
+        <v>7</v>
+      </c>
+      <c r="D205" t="s">
+        <v>7</v>
+      </c>
+      <c r="E205">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>4</v>
+      </c>
+      <c r="B206">
+        <v>27</v>
+      </c>
+      <c r="C206" t="s">
+        <v>6</v>
+      </c>
+      <c r="D206" t="s">
+        <v>5</v>
+      </c>
+      <c r="E206">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F206" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>4</v>
+      </c>
+      <c r="B207">
+        <v>28</v>
+      </c>
+      <c r="C207" t="s">
+        <v>8</v>
+      </c>
+      <c r="D207" t="s">
+        <v>6</v>
+      </c>
+      <c r="E207">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F207" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>4</v>
+      </c>
+      <c r="B208">
+        <v>29</v>
+      </c>
+      <c r="C208" t="s">
+        <v>6</v>
+      </c>
+      <c r="D208" t="s">
+        <v>6</v>
+      </c>
+      <c r="E208">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>4</v>
+      </c>
+      <c r="B209">
+        <v>30</v>
+      </c>
+      <c r="C209" t="s">
+        <v>8</v>
+      </c>
+      <c r="D209" t="s">
+        <v>8</v>
+      </c>
+      <c r="E209">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>4</v>
+      </c>
+      <c r="B210">
+        <v>31</v>
+      </c>
+      <c r="C210" t="s">
+        <v>5</v>
+      </c>
+      <c r="D210" t="s">
+        <v>5</v>
+      </c>
+      <c r="E210">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>4</v>
+      </c>
+      <c r="B211">
+        <v>32</v>
+      </c>
+      <c r="C211" t="s">
+        <v>5</v>
+      </c>
+      <c r="D211" t="s">
+        <v>5</v>
+      </c>
+      <c r="E211">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>4</v>
+      </c>
+      <c r="B212">
+        <v>33</v>
+      </c>
+      <c r="C212" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212" t="s">
+        <v>6</v>
+      </c>
+      <c r="E212">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>4</v>
+      </c>
+      <c r="B213">
+        <v>34</v>
+      </c>
+      <c r="C213" t="s">
+        <v>8</v>
+      </c>
+      <c r="D213" t="s">
+        <v>8</v>
+      </c>
+      <c r="E213">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>4</v>
+      </c>
+      <c r="B214">
+        <v>35</v>
+      </c>
+      <c r="C214" t="s">
+        <v>5</v>
+      </c>
+      <c r="D214" t="s">
+        <v>8</v>
+      </c>
+      <c r="E214">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F214" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>4</v>
+      </c>
+      <c r="B215">
+        <v>36</v>
+      </c>
+      <c r="C215" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215" t="s">
+        <v>6</v>
+      </c>
+      <c r="E215">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>4</v>
+      </c>
+      <c r="B216">
+        <v>37</v>
+      </c>
+      <c r="C216" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" t="s">
+        <v>6</v>
+      </c>
+      <c r="E216">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>4</v>
+      </c>
+      <c r="B217">
+        <v>38</v>
+      </c>
+      <c r="C217" t="s">
+        <v>8</v>
+      </c>
+      <c r="D217" t="s">
+        <v>8</v>
+      </c>
+      <c r="E217">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>4</v>
+      </c>
+      <c r="B218">
+        <v>39</v>
+      </c>
+      <c r="C218" t="s">
+        <v>10</v>
+      </c>
+      <c r="D218" t="s">
+        <v>10</v>
+      </c>
+      <c r="E218">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>4</v>
+      </c>
+      <c r="B219">
+        <v>40</v>
+      </c>
+      <c r="C219" t="s">
+        <v>5</v>
+      </c>
+      <c r="D219" t="s">
+        <v>8</v>
+      </c>
+      <c r="E219">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F219" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>4</v>
+      </c>
+      <c r="B220">
+        <v>41</v>
+      </c>
+      <c r="C220" t="s">
+        <v>5</v>
+      </c>
+      <c r="D220" t="s">
+        <v>6</v>
+      </c>
+      <c r="E220">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F220" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>4</v>
+      </c>
+      <c r="B221">
+        <v>42</v>
+      </c>
+      <c r="C221" t="s">
+        <v>8</v>
+      </c>
+      <c r="D221" t="s">
+        <v>8</v>
+      </c>
+      <c r="E221">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>4</v>
+      </c>
+      <c r="B222">
+        <v>43</v>
+      </c>
+      <c r="C222" t="s">
+        <v>7</v>
+      </c>
+      <c r="D222" t="s">
+        <v>7</v>
+      </c>
+      <c r="E222">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>4</v>
+      </c>
+      <c r="B223">
+        <v>44</v>
+      </c>
+      <c r="C223" t="s">
+        <v>5</v>
+      </c>
+      <c r="D223" t="s">
+        <v>5</v>
+      </c>
+      <c r="E223">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>4</v>
+      </c>
+      <c r="B224">
+        <v>45</v>
+      </c>
+      <c r="C224" t="s">
+        <v>8</v>
+      </c>
+      <c r="D224" t="s">
+        <v>8</v>
+      </c>
+      <c r="E224">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>4</v>
+      </c>
+      <c r="B225">
+        <v>46</v>
+      </c>
+      <c r="C225" t="s">
+        <v>8</v>
+      </c>
+      <c r="D225" t="s">
+        <v>6</v>
+      </c>
+      <c r="E225">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F225" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>4</v>
+      </c>
+      <c r="B226">
+        <v>47</v>
+      </c>
+      <c r="C226" t="s">
+        <v>6</v>
+      </c>
+      <c r="D226" t="s">
+        <v>8</v>
+      </c>
+      <c r="E226">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F226" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>4</v>
+      </c>
+      <c r="B227">
+        <v>48</v>
+      </c>
+      <c r="C227" t="s">
+        <v>52</v>
+      </c>
+      <c r="D227" t="s">
+        <v>51</v>
+      </c>
+      <c r="E227">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F227" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>4</v>
+      </c>
+      <c r="B228">
+        <v>49</v>
+      </c>
+      <c r="C228" t="s">
+        <v>5</v>
+      </c>
+      <c r="D228" t="s">
+        <v>6</v>
+      </c>
+      <c r="E228">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F228" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>4</v>
+      </c>
+      <c r="B229">
+        <v>50</v>
+      </c>
+      <c r="C229" t="s">
+        <v>5</v>
+      </c>
+      <c r="D229" t="s">
+        <v>8</v>
+      </c>
+      <c r="E229">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F229" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>4</v>
+      </c>
+      <c r="B230">
+        <v>51</v>
+      </c>
+      <c r="C230" t="s">
+        <v>6</v>
+      </c>
+      <c r="D230" t="s">
+        <v>6</v>
+      </c>
+      <c r="E230">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>4</v>
+      </c>
+      <c r="B231">
+        <v>52</v>
+      </c>
+      <c r="C231" t="s">
+        <v>5</v>
+      </c>
+      <c r="D231" t="s">
+        <v>8</v>
+      </c>
+      <c r="E231">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F231" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>4</v>
+      </c>
+      <c r="B232">
+        <v>53</v>
+      </c>
+      <c r="C232" t="s">
+        <v>7</v>
+      </c>
+      <c r="D232" t="s">
+        <v>7</v>
+      </c>
+      <c r="E232">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>4</v>
+      </c>
+      <c r="B233">
+        <v>54</v>
+      </c>
+      <c r="C233" t="s">
+        <v>5</v>
+      </c>
+      <c r="D233" t="s">
+        <v>5</v>
+      </c>
+      <c r="E233">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>4</v>
+      </c>
+      <c r="B234">
+        <v>55</v>
+      </c>
+      <c r="C234" t="s">
+        <v>6</v>
+      </c>
+      <c r="D234" t="s">
+        <v>6</v>
+      </c>
+      <c r="E234">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>4</v>
+      </c>
+      <c r="B235">
+        <v>56</v>
+      </c>
+      <c r="C235" t="s">
+        <v>18</v>
+      </c>
+      <c r="D235" t="s">
+        <v>63</v>
+      </c>
+      <c r="E235">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>4</v>
+      </c>
+      <c r="B236">
+        <v>57</v>
+      </c>
+      <c r="C236" t="s">
+        <v>8</v>
+      </c>
+      <c r="D236" t="s">
+        <v>6</v>
+      </c>
+      <c r="E236">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F236" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>4</v>
+      </c>
+      <c r="B237">
+        <v>58</v>
+      </c>
+      <c r="C237" t="s">
+        <v>6</v>
+      </c>
+      <c r="D237" t="s">
+        <v>8</v>
+      </c>
+      <c r="E237">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F237" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>4</v>
+      </c>
+      <c r="B238">
+        <v>59</v>
+      </c>
+      <c r="C238" t="s">
+        <v>7</v>
+      </c>
+      <c r="D238" t="s">
+        <v>7</v>
+      </c>
+      <c r="E238">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>4</v>
+      </c>
+      <c r="B239">
+        <v>60</v>
+      </c>
+      <c r="C239" t="s">
+        <v>5</v>
+      </c>
+      <c r="D239" t="s">
+        <v>5</v>
+      </c>
+      <c r="E239">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>4</v>
+      </c>
+      <c r="B240">
+        <v>61</v>
+      </c>
+      <c r="C240" t="s">
+        <v>5</v>
+      </c>
+      <c r="D240" t="s">
+        <v>5</v>
+      </c>
+      <c r="E240">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>4</v>
+      </c>
+      <c r="B241">
+        <v>62</v>
+      </c>
+      <c r="C241" t="s">
+        <v>6</v>
+      </c>
+      <c r="D241" t="s">
+        <v>6</v>
+      </c>
+      <c r="E241">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>4</v>
+      </c>
+      <c r="B242">
+        <v>63</v>
+      </c>
+      <c r="C242" t="s">
+        <v>7</v>
+      </c>
+      <c r="D242" t="s">
+        <v>7</v>
+      </c>
+      <c r="E242">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>4</v>
+      </c>
+      <c r="B243">
+        <v>64</v>
+      </c>
+      <c r="C243" t="s">
+        <v>6</v>
+      </c>
+      <c r="D243" t="s">
+        <v>8</v>
+      </c>
+      <c r="E243">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F243" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>4</v>
+      </c>
+      <c r="B244">
+        <v>65</v>
+      </c>
+      <c r="C244" t="s">
+        <v>7</v>
+      </c>
+      <c r="D244" t="s">
+        <v>8</v>
+      </c>
+      <c r="E244">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F244" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E245">
+        <f>SUM(E180:E244)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E246">
+        <f>(E245/B244)*100</f>
+        <v>58.461538461538467</v>
       </c>
     </row>
   </sheetData>
